--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2292.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2292.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.356207294284514</v>
+        <v>1.176612734794617</v>
       </c>
       <c r="B1">
-        <v>3.749350283441988</v>
+        <v>2.364291906356812</v>
       </c>
       <c r="C1">
-        <v>3.327872775039743</v>
+        <v>3.469253063201904</v>
       </c>
       <c r="D1">
-        <v>3.653747775443789</v>
+        <v>1.771709084510803</v>
       </c>
       <c r="E1">
-        <v>1.552196290330343</v>
+        <v>1.211493134498596</v>
       </c>
     </row>
   </sheetData>
